--- a/docs/185 - POSS.xlsx
+++ b/docs/185 - POSS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="555" windowWidth="15030" windowHeight="7680"/>
@@ -26,6 +26,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>What to test for provided that the credentials are correct?
 	-Daniel Garcia</t>
@@ -39,6 +40,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>How to test if the personnel record has indeed been removed? How will I know if the removal was successful?
 	-Daniel Garcia</t>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>Capiral, Gilmore
 Hadji Abdulmadid, Rahmah
@@ -247,15 +249,6 @@
     <t>The user is not logged into the system as admin and enters valid data. The function should throw UnauthorizedException.</t>
   </si>
   <si>
-    <t>14. View Sales Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user is logged into the system as an authorized user and inputs valid data. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user is logged into the system as an authorized user and inputs invalid data. </t>
-  </si>
-  <si>
     <t>15. View Clerk Performance Report</t>
   </si>
   <si>
@@ -266,13 +259,55 @@
   </si>
   <si>
     <t>The user is logged into the system as an authorized user and inputs invalid clerk id. The function should throw ErrorException.</t>
+  </si>
+  <si>
+    <t>Add Purchased Item</t>
+  </si>
+  <si>
+    <t>The user is logged into the system as clerk and enters valid data. The function should return the barcode of the created item.</t>
+  </si>
+  <si>
+    <t>The user is logged into the system as clerk and enters invalid data. The function should throw ErrorException.</t>
+  </si>
+  <si>
+    <t>The user is not logged into the system as clerk and enters valid data. The function should throw UnauthorizedException.</t>
+  </si>
+  <si>
+    <t>Delete Purchased Item</t>
+  </si>
+  <si>
+    <t>The user is logged in as clerk and enters valid barcode. The function should return true.</t>
+  </si>
+  <si>
+    <t>The user is logged in as clerk and enters invalid barcode. The function should throw ErrorException.</t>
+  </si>
+  <si>
+    <t>The user is not logged in as clerk and enters invalid barcode. The function should throw ErrorException.</t>
+  </si>
+  <si>
+    <t>14. Generate Sales Report</t>
+  </si>
+  <si>
+    <t>Add Transaction</t>
+  </si>
+  <si>
+    <t>The user is logged into the system as clerk and enters valid data. Quantity of items in the inventory  automaticaaly decrements by the nmber of items purchased.</t>
+  </si>
+  <si>
+    <t>The user is logged into the system as clerk enters quantity greater than the item quantity left. The function should return ErrorException.</t>
+  </si>
+  <si>
+    <t>The user is logged in as admin/auditor. User  inputs valid date range.  The function generates table for sales report.</t>
+  </si>
+  <si>
+    <t>The user is logged in as clerk. Clerk inputs valid date range. The function should return UnauthorizedException.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -291,8 +326,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,12 +366,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +428,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -402,7 +442,103 @@
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7105650</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="Rectangle 3" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7105650</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 3" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,6 +616,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -514,6 +651,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,36 +827,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="147.140625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="17.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="57">
+    <row r="1" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.75" customHeight="1">
+    <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -726,22 +864,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" customHeight="1">
+    <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.75" customHeight="1">
+    <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12.75" customHeight="1">
+    <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" customHeight="1">
+    <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -749,12 +887,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" customHeight="1">
+    <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" customHeight="1">
+    <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -762,27 +900,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="12.75" customHeight="1">
+    <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" customHeight="1">
+    <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="12.75" customHeight="1">
+    <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" customHeight="1">
+    <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" customHeight="1">
+    <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -790,27 +928,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" customHeight="1">
+    <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" customHeight="1">
+    <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" customHeight="1">
+    <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" customHeight="1">
+    <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" customHeight="1">
+    <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -818,20 +956,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" customHeight="1">
+    <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" customHeight="1">
+    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" customHeight="1">
+    <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
     </row>
-    <row r="33" spans="1:2" ht="12.75" customHeight="1">
+    <row r="33" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
@@ -839,20 +977,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" customHeight="1">
+    <row r="34" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" customHeight="1">
+    <row r="35" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" customHeight="1">
+    <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8"/>
     </row>
-    <row r="38" spans="1:2" ht="12.75" customHeight="1">
+    <row r="38" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>30</v>
       </c>
@@ -860,20 +998,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.75" customHeight="1">
+    <row r="39" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.75" customHeight="1">
+    <row r="40" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" customHeight="1">
+    <row r="41" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:2" ht="12.75" customHeight="1">
+    <row r="42" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>34</v>
       </c>
@@ -881,12 +1019,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.75" customHeight="1">
+    <row r="43" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75" customHeight="1">
+    <row r="45" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>37</v>
       </c>
@@ -894,12 +1032,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.75" customHeight="1">
+    <row r="46" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="12.75" customHeight="1">
+    <row r="48" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -907,18 +1045,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="12.75" customHeight="1">
+    <row r="49" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="12.75" customHeight="1">
+    <row r="50" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="12.75" customHeight="1">
+    <row r="52" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -926,39 +1064,39 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="12.75" customHeight="1">
+    <row r="53" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="12.75" customHeight="1">
+    <row r="54" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="12.75" customHeight="1">
+    <row r="55" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="1:2" ht="12.75" customHeight="1">
+    <row r="56" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="12.75" customHeight="1">
+    <row r="57" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="12.75" customHeight="1">
+    <row r="58" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="60" spans="1:2" ht="12.75" customHeight="1" thickBot="1">
+    <row r="59" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>47</v>
       </c>
@@ -966,18 +1104,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="12.75" customHeight="1" thickBot="1">
+    <row r="61" spans="1:2" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="12.75" customHeight="1">
+    <row r="62" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="12.75" customHeight="1">
+    <row r="64" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>48</v>
       </c>
@@ -985,17 +1123,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="12.75" customHeight="1">
+    <row r="65" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="12.75" customHeight="1">
+    <row r="66" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="12.75" customHeight="1">
+    <row r="68" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>49</v>
       </c>
@@ -1003,17 +1141,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="12.75" customHeight="1">
+    <row r="69" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="12.75" customHeight="1">
+    <row r="70" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="12.75" customHeight="1">
+    <row r="72" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>50</v>
       </c>
@@ -1021,42 +1159,98 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="12.75" customHeight="1">
-      <c r="B75" s="4" t="s">
+    <row r="78" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A77" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="5" t="s">
+    <row r="81" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5" t="s">
+      <c r="B81" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5" t="s">
-        <v>69</v>
+    <row r="83" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>